--- a/109 Languages Frequency Word Lists/Malayalam (ML).xlsx
+++ b/109 Languages Frequency Word Lists/Malayalam (ML).xlsx
@@ -468,7 +468,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">

--- a/109 Languages Frequency Word Lists/Malayalam (ML).xlsx
+++ b/109 Languages Frequency Word Lists/Malayalam (ML).xlsx
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
